--- a/Excel/Sheet.xlsx
+++ b/Excel/Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\himanshukumar05\git\SeleniumJavaFramework\ExitTest\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3FCF2A-12BB-4C38-A8B6-E0C77BDF2433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD6270D5-7F0E-4206-991B-63AD3335A928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{577D80FE-930F-4D57-B0D8-A1C8BF094CE7}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Password</t>
   </si>
@@ -47,6 +47,12 @@
   </si>
   <si>
     <t>8377861214</t>
+  </si>
+  <si>
+    <t>EXECUTION</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -413,7 +419,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -438,7 +444,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{3485331D-E19D-444D-AF17-0F28F08B12A2}"/>
